--- a/medicine/Sexualité et sexologie/Quand_les_femmes_perdirent_leur_queue/Quand_les_femmes_perdirent_leur_queue.xlsx
+++ b/medicine/Sexualité et sexologie/Quand_les_femmes_perdirent_leur_queue/Quand_les_femmes_perdirent_leur_queue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Quand les femmes perdirent leur queue  (italien : Quando le donne persero la coda) est un film italien réalisé par Pasquale Festa Campanile sorti en 1972. C'est la suite de Quand les femmes avaient une queue[1],[2].
+Quand les femmes perdirent leur queue  (italien : Quando le donne persero la coda) est un film italien réalisé par Pasquale Festa Campanile sorti en 1972. C'est la suite de Quand les femmes avaient une queue,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un clan d'hommes des cavernes d'évolution mentale inférieure à celle du singe, un jour un homo sapiens intelligent arrive et avec lui vient l'argent. Ainsi, les hommes des cavernes apprennent rapidement à connaître l'autre sexe.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Quand les femmes perdirent leur queue
 Titre original : italien : Quando le donne persero la coda
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Senta Berger : Filli
 Lando Buzzanca : Jambon
